--- a/Robak/doc/Aktory/DIN-8SW8.xlsx
+++ b/Robak/doc/Aktory/DIN-8SW8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>Obwód</t>
   </si>
@@ -118,9 +118,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>siłownia</t>
-  </si>
-  <si>
     <t>rol_2_up</t>
   </si>
   <si>
@@ -152,6 +149,135 @@
   </si>
   <si>
     <t>zal_7A_down</t>
+  </si>
+  <si>
+    <t>zal_14_up</t>
+  </si>
+  <si>
+    <t>zal_14_down</t>
+  </si>
+  <si>
+    <t>zal_9_up</t>
+  </si>
+  <si>
+    <t>zal_9_down</t>
+  </si>
+  <si>
+    <t>zal_11_up</t>
+  </si>
+  <si>
+    <t>zal_11_down</t>
+  </si>
+  <si>
+    <t>pom 04</t>
+  </si>
+  <si>
+    <t>rol_1_up</t>
+  </si>
+  <si>
+    <t>rol_1_down</t>
+  </si>
+  <si>
+    <t>ZD 11</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>rol_3_up</t>
+  </si>
+  <si>
+    <t>rol_3_down</t>
+  </si>
+  <si>
+    <t>rol_4_up</t>
+  </si>
+  <si>
+    <t>rol_4_down</t>
+  </si>
+  <si>
+    <t>siłownia 2</t>
+  </si>
+  <si>
+    <t>siłownia 1</t>
+  </si>
+  <si>
+    <t>salon 1</t>
+  </si>
+  <si>
+    <t>salon 2</t>
+  </si>
+  <si>
+    <t>zal_6_up</t>
+  </si>
+  <si>
+    <t>zal_6_down</t>
+  </si>
+  <si>
+    <t>zal_15_up</t>
+  </si>
+  <si>
+    <t>zal_15_down</t>
+  </si>
+  <si>
+    <t>kuchnia</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>rol_5_up</t>
+  </si>
+  <si>
+    <t>rol_5_down</t>
+  </si>
+  <si>
+    <t>sauna 1</t>
+  </si>
+  <si>
+    <t>zal_8_up</t>
+  </si>
+  <si>
+    <t>zal_8_down</t>
+  </si>
+  <si>
+    <t>pom 05</t>
+  </si>
+  <si>
+    <t>zal_13_up</t>
+  </si>
+  <si>
+    <t>zal_13_down</t>
+  </si>
+  <si>
+    <t>ekran_up</t>
+  </si>
+  <si>
+    <t>ekran_down</t>
+  </si>
+  <si>
+    <t>zal_4_up</t>
+  </si>
+  <si>
+    <t>zal_4_down</t>
+  </si>
+  <si>
+    <t>rol_6_up</t>
+  </si>
+  <si>
+    <t>rol_6_down</t>
+  </si>
+  <si>
+    <t>kuchnia 1</t>
+  </si>
+  <si>
+    <t>rol_7_up</t>
+  </si>
+  <si>
+    <t>rol_7_down</t>
+  </si>
+  <si>
+    <t>kuchnia 2</t>
   </si>
 </sst>
 </file>
@@ -265,9 +391,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -290,6 +413,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,7 +724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -608,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,37 +821,41 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="15">
         <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="7">
+      <c r="F3" s="15">
         <v>15</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="7">
+      <c r="K3" s="15">
         <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -736,27 +866,29 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="2">
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -767,30 +899,32 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="2">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="8"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -798,30 +932,32 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="2">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="2">
         <v>4</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="8"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -829,27 +965,29 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="2">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -860,28 +998,30 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="2">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="2">
         <v>6</v>
       </c>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -893,31 +1033,35 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="2">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="2">
         <v>7</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -928,28 +1072,30 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="2">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="2">
         <v>8</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -975,35 +1121,39 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="15">
         <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="F12" s="7">
+      <c r="F12" s="15">
         <v>16</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="7">
+      <c r="K12" s="15">
         <v>20</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1014,28 +1164,30 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="2">
         <v>2</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1047,27 +1199,32 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="2">
         <v>3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="7"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1078,28 +1235,30 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="2">
         <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="2">
         <v>4</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1111,23 +1270,25 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="2">
         <v>5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="7"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="2">
         <v>5</v>
       </c>
@@ -1142,28 +1303,28 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="2">
         <v>6</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="2">
         <v>6</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="P17" s="8"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1173,23 +1334,25 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2">
         <v>7</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="2">
         <v>7</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="7"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="2">
         <v>7</v>
       </c>
@@ -1204,24 +1367,24 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2">
         <v>8</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="2">
         <v>8</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="7"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="2">
         <v>8</v>
       </c>
@@ -1251,25 +1414,29 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="15">
         <v>13</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="15">
         <v>17</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="7">
+      <c r="K21" s="15">
         <v>21</v>
       </c>
       <c r="L21" s="2">
@@ -1286,21 +1453,23 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="2">
         <v>2</v>
       </c>
@@ -1315,22 +1484,26 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="7"/>
+      <c r="K23" s="15"/>
       <c r="L23" s="2">
         <v>3</v>
       </c>
@@ -1346,22 +1519,26 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="7"/>
+      <c r="K24" s="15"/>
       <c r="L24" s="2">
         <v>4</v>
       </c>
@@ -1377,22 +1554,26 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="15"/>
       <c r="L25" s="2">
         <v>5</v>
       </c>
@@ -1408,22 +1589,24 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2">
         <v>6</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="7"/>
+      <c r="K26" s="15"/>
       <c r="L26" s="2">
         <v>6</v>
       </c>
@@ -1439,20 +1622,24 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2">
         <v>7</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="1"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="2">
         <v>7</v>
       </c>
@@ -1468,19 +1655,21 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="2">
         <v>8</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="F28" s="7"/>
+      <c r="C28" s="14"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="7"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="2">
         <v>8</v>
       </c>
@@ -1509,23 +1698,25 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="15">
         <v>14</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="F30" s="7">
+      <c r="C30" s="14"/>
+      <c r="F30" s="15">
         <v>18</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="7">
+      <c r="K30" s="15">
         <v>22</v>
       </c>
       <c r="L30" s="2">
@@ -1542,19 +1733,21 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="2">
         <v>2</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="F31" s="7"/>
+      <c r="C31" s="14"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="2">
         <v>2</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="7"/>
+      <c r="K31" s="15"/>
       <c r="L31" s="2">
         <v>2</v>
       </c>
@@ -1569,19 +1762,23 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2">
         <v>3</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="F32" s="7"/>
+      <c r="C32" s="14"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="2">
         <v>3</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="7"/>
+      <c r="K32" s="15"/>
       <c r="L32" s="2">
         <v>3</v>
       </c>
@@ -1596,17 +1793,19 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="2">
         <v>4</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="F33" s="7"/>
+      <c r="C33" s="14"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="2">
         <v>4</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="K33" s="7"/>
+      <c r="H33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="15"/>
       <c r="L33" s="2">
         <v>4</v>
       </c>
@@ -1619,17 +1818,19 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="2">
         <v>5</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="F34" s="7"/>
+      <c r="C34" s="14"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="K34" s="7"/>
+      <c r="H34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="15"/>
       <c r="L34" s="2">
         <v>5</v>
       </c>
@@ -1642,17 +1843,19 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="2">
         <v>6</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="F35" s="7"/>
+      <c r="C35" s="14"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="2">
         <v>6</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="K35" s="7"/>
+      <c r="H35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="15"/>
       <c r="L35" s="2">
         <v>6</v>
       </c>
@@ -1665,17 +1868,22 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="2">
         <v>7</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="F36" s="7"/>
+      <c r="C36" s="14"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="2">
         <v>7</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="K36" s="7"/>
+      <c r="H36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="15"/>
       <c r="L36" s="2">
         <v>7</v>
       </c>
@@ -1688,17 +1896,19 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="2">
         <v>8</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="F37" s="7"/>
+      <c r="C37" s="14"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="2">
         <v>8</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="K37" s="7"/>
+      <c r="H37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37" s="15"/>
       <c r="L37" s="2">
         <v>8</v>
       </c>
@@ -1738,32 +1948,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
     </row>
